--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JackMacbook/Desktop/Dad/softball/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5DE527-B6AC-E848-8685-F49F410E6933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F798DD6-C0D8-2440-B608-F45A64AACF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="660" windowWidth="22480" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="440" yWindow="640" windowWidth="22480" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PB_CACHE" sheetId="16" state="veryHidden" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="502">
   <si>
     <t>Team</t>
   </si>
@@ -1305,7 +1305,7 @@
   </si>
   <si>
     <r>
-      <t>Outsiders @ Dogfish (</t>
+      <t>Dogfish @ Outsiders (</t>
     </r>
     <r>
       <rPr>
@@ -1331,7 +1331,85 @@
   </si>
   <si>
     <r>
-      <t>Clippers @ Bulkheads (</t>
+      <t>Fringe @ Bulkheads (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Clippers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Outsiders @ Clippers (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Excitables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dragons @ Dogfish (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Riptide</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Riptide @ Fringe (</t>
     </r>
     <r>
       <rPr>
@@ -1357,7 +1435,137 @@
   </si>
   <si>
     <r>
-      <t>Clippers @ Dogfish (</t>
+      <t>Bulkheads @ Excitables (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Outsiders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Riptide @ Clippers (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dogfish</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Excitables @ Dragons (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fringe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Outsiders @ Riptide (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Excitables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dogfish @ Bulkheads (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fringe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Clippers @ Dragons (</t>
     </r>
     <r>
       <rPr>
@@ -1383,7 +1591,81 @@
   </si>
   <si>
     <r>
-      <t>Outsiders @ Excitables (</t>
+      <t>Fringe @ Excitables (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Outsiders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Outsiders @ Dragons (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bulkheads</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Riptide @ Excitables (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Clippers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dogfish @ Fringe (</t>
     </r>
     <r>
       <rPr>
@@ -1409,7 +1691,59 @@
   </si>
   <si>
     <r>
-      <t>Dragons @ Fringe (</t>
+      <t>Clippers @ Excitables (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chefetz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dragons @ Bulkheads (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Excitables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dragons @ Excitables (</t>
     </r>
     <r>
       <rPr>
@@ -1435,7 +1769,33 @@
   </si>
   <si>
     <r>
-      <t>Dogfish @ Outsiders (</t>
+      <t>Excitables @ Fringe (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dogfish</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Riptide @ Outsiders (</t>
     </r>
     <r>
       <rPr>
@@ -1461,7 +1821,85 @@
   </si>
   <si>
     <r>
-      <t>Fringe @ Bulkheads (</t>
+      <t>Bulkheads @ Dogfish (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Riptide</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Clippers @ Outsiders (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dragons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fringe @ Clippers (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chefetz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bulkheads @ Outsiders (</t>
     </r>
     <r>
       <rPr>
@@ -1487,7 +1925,7 @@
   </si>
   <si>
     <r>
-      <t>Outsiders @ Clippers (</t>
+      <t>Excitables @ Dogfish (</t>
     </r>
     <r>
       <rPr>
@@ -1498,7 +1936,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Excitables</t>
+      <t>Outsiders</t>
     </r>
     <r>
       <rPr>
@@ -1513,7 +1951,7 @@
   </si>
   <si>
     <r>
-      <t>Dragons @ Dogfish (</t>
+      <t>Dragons @ Riptide (</t>
     </r>
     <r>
       <rPr>
@@ -1524,7 +1962,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Riptide</t>
+      <t>Fringe</t>
     </r>
     <r>
       <rPr>
@@ -1539,7 +1977,83 @@
   </si>
   <si>
     <r>
-      <t>Riptide @ Fringe (</t>
+      <t>Fringe @ Dragons (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dogfish</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Clippers @ Riptide (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Outsiders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Excitables @ Bulkheads (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dragons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bulkheads @ Fringe (</t>
     </r>
     <r>
       <rPr>
@@ -1564,8 +2078,53 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Bulkheads @ Excitables (</t>
+    <t>Rips/Drag</t>
+  </si>
+  <si>
+    <t>Outs/Clip</t>
+  </si>
+  <si>
+    <t>Bulk/Dogs</t>
+  </si>
+  <si>
+    <t>Clip/Drag</t>
+  </si>
+  <si>
+    <t>Fringe/Bulk</t>
+  </si>
+  <si>
+    <t>Dogs/Excite</t>
+  </si>
+  <si>
+    <t>Excite/Fringe</t>
+  </si>
+  <si>
+    <t>Dogfish/Excitables/  Outsiders</t>
+  </si>
+  <si>
+    <t>Riptide/Fringe/  Dogfish</t>
+  </si>
+  <si>
+    <t>Riptide/Bulkheads/ Dogfish</t>
+  </si>
+  <si>
+    <t>Riptide/Fringe/ Outsiders</t>
+  </si>
+  <si>
+    <t>Clippers/Dragons/ Outsiders</t>
+  </si>
+  <si>
+    <t>Bulkheads/Fringe/ Excitables</t>
+  </si>
+  <si>
+    <t>Dragons/Fringe/ Bulkheads</t>
+  </si>
+  <si>
+    <t>Dragons/Clippers/ Excitables</t>
+  </si>
+  <si>
+    <r>
+      <t>Dogfish @ Riptide (</t>
     </r>
     <r>
       <rPr>
@@ -1576,7 +2135,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Outsiders</t>
+      <t>Dragons</t>
     </r>
     <r>
       <rPr>
@@ -1590,8 +2149,32 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Riptide @ Clippers (</t>
+    <t>Excitables (11) @ Riptide (2)</t>
+  </si>
+  <si>
+    <t>Dogfish (0) @ Excitables (16)</t>
+  </si>
+  <si>
+    <t>Riptide (2) @ Dragons (9)</t>
+  </si>
+  <si>
+    <t>Outsiders (0) @ Bulkheads (4)</t>
+  </si>
+  <si>
+    <t>Clippers (10) @ Fringe (5)</t>
+  </si>
+  <si>
+    <t>Bulkheads (8) @ Clippers (4)</t>
+  </si>
+  <si>
+    <t>Fringe (7) @ Dogfish (2)</t>
+  </si>
+  <si>
+    <t>Dragons (4) @ Outsiders (3)</t>
+  </si>
+  <si>
+    <r>
+      <t>Outsiders @ Fringe (</t>
     </r>
     <r>
       <rPr>
@@ -1617,211 +2200,7 @@
   </si>
   <si>
     <r>
-      <t>Excitables @ Dragons (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fringe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Outsiders @ Riptide (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Excitables</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Dogfish @ Bulkheads (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fringe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Clippers @ Dragons (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Riptide</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Fringe @ Excitables (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Outsiders</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Outsiders @ Dragons (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bulkheads</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Riptide @ Excitables (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Clippers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Dogfish @ Fringe (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dragons</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Clippers @ Excitables (</t>
+      <t>Bulkheads @ Riptide (</t>
     </r>
     <r>
       <rPr>
@@ -1846,551 +2225,15 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Dragons @ Bulkheads (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Excitables</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Dragons @ Excitables (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bulkheads</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Excitables @ Fringe (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dogfish</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Riptide @ Outsiders (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chefetz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Bulkheads @ Dogfish (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Riptide</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Clippers @ Outsiders (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dragons</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Fringe @ Clippers (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chefetz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Bulkheads @ Outsiders (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Clippers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Excitables @ Dogfish (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Outsiders</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Dragons @ Riptide (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fringe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Fringe @ Dragons (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dogfish</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Clippers @ Riptide (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Outsiders</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Excitables @ Bulkheads (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dragons</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Bulkheads @ Fringe (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chefetz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Rips/Drag</t>
-  </si>
-  <si>
-    <t>Outs/Clip</t>
-  </si>
-  <si>
-    <t>Bulk/Dogs</t>
-  </si>
-  <si>
-    <t>Clip/Drag</t>
-  </si>
-  <si>
-    <t>Fringe/Bulk</t>
-  </si>
-  <si>
-    <t>Dogs/Excite</t>
-  </si>
-  <si>
-    <t>Excite/Fringe</t>
-  </si>
-  <si>
-    <t>Dogfish/Excitables/  Outsiders</t>
-  </si>
-  <si>
-    <t>Riptide/Fringe/  Dogfish</t>
-  </si>
-  <si>
-    <t>Riptide/Bulkheads/ Dogfish</t>
-  </si>
-  <si>
-    <t>Riptide/Fringe/ Outsiders</t>
-  </si>
-  <si>
-    <t>Clippers/Dragons/ Outsiders</t>
-  </si>
-  <si>
-    <t>Bulkheads/Fringe/ Excitables</t>
-  </si>
-  <si>
-    <t>Dragons/Fringe/ Bulkheads</t>
-  </si>
-  <si>
-    <t>Dragons/Clippers/ Excitables</t>
-  </si>
-  <si>
-    <r>
-      <t>Dogfish @ Riptide (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dragons</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Excitables (11) @ Riptide (2)</t>
-  </si>
-  <si>
-    <t>Dogfish (0) @ Excitables (16)</t>
-  </si>
-  <si>
-    <t>Riptide (2) @ Dragons (9)</t>
-  </si>
-  <si>
-    <t>Outsiders (0) @ Bulkheads (4)</t>
-  </si>
-  <si>
-    <t>Clippers (10) @ Fringe (5)</t>
-  </si>
-  <si>
-    <t>Bulkheads (8) @ Clippers (4)</t>
-  </si>
-  <si>
-    <t>Fringe (7) @ Dogfish (2)</t>
-  </si>
-  <si>
-    <t>Dragons (4) @ Outsiders (3)</t>
-  </si>
-  <si>
-    <r>
-      <t>Outsiders @ Fringe (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dogfish</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Bulkheads @ Riptide (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chefetz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>2-0</t>
-  </si>
-  <si>
-    <t>1-1</t>
-  </si>
-  <si>
-    <t>0-2</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>Friday, July 11</t>
   </si>
   <si>
-    <t>(As of 6/23/25)</t>
-  </si>
-  <si>
     <t>Chet Striplin, Clippers</t>
   </si>
   <si>
@@ -2421,16 +2264,79 @@
     <t>1-2</t>
   </si>
   <si>
-    <t>0-3</t>
-  </si>
-  <si>
-    <t>UPDATED: June 23, 2025</t>
-  </si>
-  <si>
     <t>Riptide (4) @ Dogfish (3)</t>
   </si>
   <si>
-    <t>6</t>
+    <t>Dragons (7) @ Fringe (1)</t>
+  </si>
+  <si>
+    <t>Outsiders (2) @ Dogfish (3)</t>
+  </si>
+  <si>
+    <t>Outsiders (6) @ Excitables (4)</t>
+  </si>
+  <si>
+    <t>UPDATED: July 2, 2025</t>
+  </si>
+  <si>
+    <t>666</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>+23</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4-1</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>Bryan Ehlers, Clippers</t>
+  </si>
+  <si>
+    <t>Matt Rouleau, Clippers</t>
+  </si>
+  <si>
+    <t>Adam Berman, Outsiders</t>
+  </si>
+  <si>
+    <t>Kyle Sapia, Dogfish</t>
+  </si>
+  <si>
+    <t>Andrew Darcy, Excitables</t>
+  </si>
+  <si>
+    <t>Andy Mcallister, Bulkheads</t>
+  </si>
+  <si>
+    <t>(As of 7/2/25)</t>
+  </si>
+  <si>
+    <t>Clippers (11) @ Dogfish (3)</t>
+  </si>
+  <si>
+    <t>Clippers (12) @ Bulkheads (4)</t>
   </si>
 </sst>
 </file>
@@ -2994,7 +2900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3374,20 +3280,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3692,8 +3607,8 @@
   </sheetPr>
   <dimension ref="A1:AD85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A9" zoomScale="42" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="U45" sqref="U45"/>
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A11" zoomScale="62" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="37" x14ac:dyDescent="0.45"/>
@@ -3760,7 +3675,7 @@
       <c r="F3" s="98"/>
       <c r="G3" s="98"/>
       <c r="I3" s="99" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="J3" s="99"/>
       <c r="K3" s="99"/>
@@ -3782,7 +3697,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C4" s="102" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D4" s="98"/>
       <c r="E4" s="98"/>
@@ -3802,7 +3717,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="Q4" s="106" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="R4" s="133"/>
       <c r="S4" s="133"/>
@@ -3839,13 +3754,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C6" s="102" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="I6" s="101">
         <v>0.41666666666666669</v>
       </c>
       <c r="J6" s="103" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="K6" s="99"/>
       <c r="L6" s="99"/>
@@ -3855,7 +3770,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="Q6" s="106" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="R6" s="133"/>
       <c r="S6" s="133"/>
@@ -3874,13 +3789,13 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C7" s="103" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I7" s="101">
         <v>0.5</v>
       </c>
       <c r="J7" s="103" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="K7" s="99"/>
       <c r="L7" s="99"/>
@@ -3916,7 +3831,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="J8" s="103" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="K8" s="101"/>
       <c r="L8" s="101"/>
@@ -3926,7 +3841,7 @@
         <v>0.75</v>
       </c>
       <c r="Q8" s="106" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="R8" s="106"/>
       <c r="S8" s="106"/>
@@ -3946,7 +3861,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C9" s="96" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="I9" s="99" t="s">
         <v>372</v>
@@ -3972,13 +3887,13 @@
         <v>0.5</v>
       </c>
       <c r="C10" s="102" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="I10" s="110">
         <v>0.5</v>
       </c>
       <c r="J10" s="111" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="K10" s="111"/>
       <c r="L10" s="111"/>
@@ -3988,7 +3903,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="Q10" s="106" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="R10" s="133"/>
       <c r="S10" s="133"/>
@@ -4008,7 +3923,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C11" s="102" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="I11" s="108"/>
       <c r="J11" s="106"/>
@@ -4038,7 +3953,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C12" s="102" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="I12" s="99" t="s">
         <v>371</v>
@@ -4085,7 +4000,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C14" s="111" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D14" s="111"/>
       <c r="E14" s="111"/>
@@ -4142,7 +4057,7 @@
         <v>0.5625</v>
       </c>
       <c r="J16" s="106" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="K16" s="106"/>
       <c r="L16" s="106"/>
@@ -4153,7 +4068,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="Q16" s="103" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="R16" s="106"/>
       <c r="S16" s="106"/>
@@ -4171,7 +4086,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="J17" s="102" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="P17" s="101">
         <v>0.5</v>
@@ -4191,7 +4106,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C18" s="102" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="I18" s="99" t="s">
         <v>374</v>
@@ -4205,7 +4120,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="Q18" s="102" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="R18" s="106"/>
       <c r="S18" s="106"/>
@@ -4218,7 +4133,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C19" s="120" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="D19" s="111"/>
       <c r="E19" s="111"/>
@@ -4228,7 +4143,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="J19" s="106" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="K19" s="99"/>
       <c r="L19" s="99"/>
@@ -4238,7 +4153,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="Q19" s="102" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="R19" s="101"/>
       <c r="S19" s="101"/>
@@ -4252,7 +4167,7 @@
         <v>0.5</v>
       </c>
       <c r="J20" s="120" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="K20" s="113"/>
       <c r="L20" s="113"/>
@@ -4283,7 +4198,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="Q21" s="102" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="R21" s="112"/>
       <c r="S21" s="112"/>
@@ -4297,7 +4212,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C22" s="102" t="s">
-        <v>409</v>
+        <v>501</v>
       </c>
       <c r="D22" s="106"/>
       <c r="E22" s="106"/>
@@ -4320,7 +4235,7 @@
         <v>0.5</v>
       </c>
       <c r="C23" s="102" t="s">
-        <v>410</v>
+        <v>500</v>
       </c>
       <c r="D23" s="106"/>
       <c r="E23" s="106"/>
@@ -4330,7 +4245,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="J23" s="102" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="M23" s="106"/>
       <c r="N23" s="106"/>
@@ -4348,7 +4263,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C24" s="102" t="s">
-        <v>411</v>
+        <v>480</v>
       </c>
       <c r="I24" s="99" t="s">
         <v>375</v>
@@ -4382,7 +4297,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="J25" s="102" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="P25" s="104">
         <v>0.70833333333333337</v>
@@ -4401,7 +4316,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C26" s="106" t="s">
-        <v>412</v>
+        <v>478</v>
       </c>
       <c r="D26" s="106"/>
       <c r="E26" s="106"/>
@@ -4411,7 +4326,7 @@
         <v>0.5</v>
       </c>
       <c r="J26" s="102" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="P26" s="99" t="s">
         <v>387</v>
@@ -4427,7 +4342,7 @@
         <v>0.5</v>
       </c>
       <c r="C27" s="111" t="s">
-        <v>408</v>
+        <v>479</v>
       </c>
       <c r="D27" s="111"/>
       <c r="E27" s="111"/>
@@ -4461,7 +4376,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="J28" s="106" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="P28" s="110">
         <v>0.5</v>
@@ -4529,7 +4444,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="C31" s="106" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D31" s="99"/>
       <c r="E31" s="99"/>
@@ -4539,7 +4454,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="J31" s="106" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="P31" s="108">
         <v>0.4375</v>
@@ -4584,7 +4499,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C33" s="103" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E33" s="101"/>
       <c r="F33" s="101"/>
@@ -4621,7 +4536,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="J34" s="102" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="K34" s="106"/>
       <c r="L34" s="106"/>
@@ -4643,7 +4558,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C35" s="103" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D35" s="99"/>
       <c r="E35" s="99"/>
@@ -4672,7 +4587,7 @@
         <v>0.5</v>
       </c>
       <c r="C36" s="103" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D36" s="101"/>
       <c r="E36" s="101"/>
@@ -4692,7 +4607,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C37" s="103" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D37" s="99"/>
       <c r="E37" s="99"/>
@@ -4702,11 +4617,11 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="J37" s="102" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="O37" s="134"/>
       <c r="Q37" s="146" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="R37" s="147"/>
       <c r="S37" s="147"/>
@@ -4717,7 +4632,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C38" s="103" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="I38" s="99" t="s">
         <v>379</v>
@@ -4738,7 +4653,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="J39" s="106" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="K39" s="133"/>
       <c r="L39" s="133"/>
@@ -4756,13 +4671,13 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C40" s="103" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="I40" s="110">
         <v>0.5</v>
       </c>
       <c r="J40" s="111" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="K40" s="111"/>
       <c r="L40" s="111"/>
@@ -4784,7 +4699,7 @@
         <v>0.5</v>
       </c>
       <c r="C41" s="111" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D41" s="145"/>
       <c r="E41" s="145"/>
@@ -4801,7 +4716,7 @@
       <c r="Q41" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="R41" s="127" t="s">
+      <c r="R41" s="164" t="s">
         <v>1</v>
       </c>
       <c r="S41" s="127" t="s">
@@ -4830,22 +4745,22 @@
         <v>10</v>
       </c>
       <c r="Q42" s="129" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="R42" s="129" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="S42" s="129" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="T42" s="129" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="U42" s="129" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="V42" s="115">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="X42" s="136"/>
     </row>
@@ -4863,22 +4778,22 @@
         <v>6</v>
       </c>
       <c r="Q43" s="129" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="R43" s="130">
-        <v>1000</v>
+        <v>666</v>
       </c>
       <c r="S43" s="131">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="T43" s="131">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="U43" s="132">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="V43" s="129" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="X43" s="136"/>
     </row>
@@ -4891,22 +4806,22 @@
         <v>7</v>
       </c>
       <c r="Q44" s="129" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="R44" s="130">
-        <v>666</v>
+        <v>800</v>
       </c>
       <c r="S44" s="131">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="T44" s="131">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="U44" s="132">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="V44" s="129" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="X44" s="136"/>
     </row>
@@ -4929,19 +4844,19 @@
         <v>489</v>
       </c>
       <c r="R45" s="130">
-        <v>666</v>
+        <v>750</v>
       </c>
       <c r="S45" s="131">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="T45" s="131">
-        <v>18</v>
-      </c>
-      <c r="U45" s="131">
-        <v>-1</v>
+        <v>19</v>
+      </c>
+      <c r="U45" s="132">
+        <v>5</v>
       </c>
       <c r="V45" s="129" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="X45" s="136"/>
     </row>
@@ -4955,22 +4870,22 @@
         <v>11</v>
       </c>
       <c r="Q46" s="129" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="R46" s="130">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="S46" s="131">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T46" s="131">
-        <v>12</v>
-      </c>
-      <c r="U46" s="132">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="U46" s="131">
+        <v>-6</v>
       </c>
       <c r="V46" s="129" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="X46" s="136"/>
     </row>
@@ -4989,7 +4904,7 @@
         <v>13</v>
       </c>
       <c r="Q47" s="129" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="R47" s="135">
         <v>333</v>
@@ -5004,7 +4919,7 @@
         <v>-15</v>
       </c>
       <c r="V47" s="129" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="X47" s="136"/>
     </row>
@@ -5022,22 +4937,22 @@
         <v>12</v>
       </c>
       <c r="Q48" s="129" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="R48" s="130">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="S48" s="131">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="T48" s="131">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="U48" s="131">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="V48" s="129" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="X48" s="136"/>
     </row>
@@ -5051,22 +4966,22 @@
         <v>8</v>
       </c>
       <c r="Q49" s="129" t="s">
+        <v>492</v>
+      </c>
+      <c r="R49" s="135">
+        <v>200</v>
+      </c>
+      <c r="S49" s="131">
+        <v>11</v>
+      </c>
+      <c r="T49" s="131">
+        <v>40</v>
+      </c>
+      <c r="U49" s="131">
+        <v>-29</v>
+      </c>
+      <c r="V49" s="129" t="s">
         <v>491</v>
-      </c>
-      <c r="R49" s="135">
-        <v>0</v>
-      </c>
-      <c r="S49" s="131">
-        <v>5</v>
-      </c>
-      <c r="T49" s="131">
-        <v>27</v>
-      </c>
-      <c r="U49" s="131">
-        <v>-22</v>
-      </c>
-      <c r="V49" s="129" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.45">
@@ -6891,10 +6806,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C1:I56"/>
+  <dimension ref="C1:I60"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="C9" sqref="C9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6916,7 +6831,7 @@
     </row>
     <row r="2" spans="3:9" ht="22" x14ac:dyDescent="0.3">
       <c r="C2" s="161" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="D2" s="161"/>
       <c r="E2" s="161"/>
@@ -6927,7 +6842,7 @@
     </row>
     <row r="3" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="162" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="D3" s="162"/>
       <c r="E3" s="162"/>
@@ -6937,50 +6852,50 @@
       <c r="I3" s="64"/>
     </row>
     <row r="4" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="158" t="s">
-        <v>481</v>
-      </c>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="159">
+      <c r="C4" s="163" t="s">
+        <v>467</v>
+      </c>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163">
+        <v>4</v>
+      </c>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="64"/>
+    </row>
+    <row r="5" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="158" t="s">
+        <v>493</v>
+      </c>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158">
         <v>3</v>
-      </c>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="64"/>
-    </row>
-    <row r="5" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="163" t="s">
-        <v>198</v>
-      </c>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="158">
-        <v>2</v>
       </c>
       <c r="G5" s="158"/>
       <c r="H5" s="158"/>
       <c r="I5" s="64"/>
     </row>
     <row r="6" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="158" t="s">
+      <c r="C6" s="163" t="s">
         <v>227</v>
       </c>
-      <c r="D6" s="158"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158">
-        <v>2</v>
-      </c>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163">
+        <v>3</v>
+      </c>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
       <c r="I6" s="64"/>
     </row>
     <row r="7" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="158" t="s">
-        <v>202</v>
-      </c>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
+      <c r="C7" s="165" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
       <c r="F7" s="158">
         <v>2</v>
       </c>
@@ -6990,7 +6905,7 @@
     </row>
     <row r="8" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="158" t="s">
-        <v>219</v>
+        <v>497</v>
       </c>
       <c r="D8" s="158"/>
       <c r="E8" s="158"/>
@@ -7002,26 +6917,26 @@
       <c r="I8" s="64"/>
     </row>
     <row r="9" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="159" t="s">
-        <v>222</v>
-      </c>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="159">
+      <c r="C9" s="158" t="s">
+        <v>238</v>
+      </c>
+      <c r="D9" s="158"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="158">
         <v>2</v>
       </c>
-      <c r="G9" s="159"/>
-      <c r="H9" s="159"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
       <c r="I9" s="64"/>
     </row>
     <row r="10" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="158" t="s">
-        <v>196</v>
+        <v>469</v>
       </c>
       <c r="D10" s="158"/>
       <c r="E10" s="158"/>
       <c r="F10" s="158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="158"/>
       <c r="H10" s="158"/>
@@ -7029,12 +6944,12 @@
     </row>
     <row r="11" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="158" t="s">
-        <v>221</v>
+        <v>470</v>
       </c>
       <c r="D11" s="158"/>
       <c r="E11" s="158"/>
       <c r="F11" s="158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="158"/>
       <c r="H11" s="158"/>
@@ -7042,12 +6957,12 @@
     </row>
     <row r="12" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="158" t="s">
-        <v>238</v>
+        <v>494</v>
       </c>
       <c r="D12" s="158"/>
       <c r="E12" s="158"/>
       <c r="F12" s="158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="158"/>
       <c r="H12" s="158"/>
@@ -7055,44 +6970,46 @@
     </row>
     <row r="13" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="158" t="s">
-        <v>482</v>
+        <v>202</v>
       </c>
       <c r="D13" s="158"/>
       <c r="E13" s="158"/>
       <c r="F13" s="158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="158"/>
       <c r="H13" s="158"/>
       <c r="I13" s="64"/>
     </row>
-    <row r="14" spans="3:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="158" t="s">
-        <v>485</v>
+        <v>219</v>
       </c>
       <c r="D14" s="158"/>
       <c r="E14" s="158"/>
       <c r="F14" s="158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="158"/>
       <c r="H14" s="158"/>
-    </row>
-    <row r="15" spans="3:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="158" t="s">
-        <v>483</v>
-      </c>
-      <c r="D15" s="158"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="158">
-        <v>1</v>
-      </c>
-      <c r="G15" s="158"/>
-      <c r="H15" s="158"/>
-    </row>
-    <row r="16" spans="3:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="64"/>
+    </row>
+    <row r="15" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="163" t="s">
+        <v>222</v>
+      </c>
+      <c r="D15" s="163"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163">
+        <v>2</v>
+      </c>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="64"/>
+    </row>
+    <row r="16" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="158" t="s">
-        <v>484</v>
+        <v>194</v>
       </c>
       <c r="D16" s="158"/>
       <c r="E16" s="158"/>
@@ -7101,10 +7018,11 @@
       </c>
       <c r="G16" s="158"/>
       <c r="H16" s="158"/>
-    </row>
-    <row r="17" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I16" s="64"/>
+    </row>
+    <row r="17" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="158" t="s">
-        <v>228</v>
+        <v>495</v>
       </c>
       <c r="D17" s="158"/>
       <c r="E17" s="158"/>
@@ -7113,10 +7031,11 @@
       </c>
       <c r="G17" s="158"/>
       <c r="H17" s="158"/>
-    </row>
-    <row r="18" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I17" s="64"/>
+    </row>
+    <row r="18" spans="3:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="158" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D18" s="158"/>
       <c r="E18" s="158"/>
@@ -7126,9 +7045,9 @@
       <c r="G18" s="158"/>
       <c r="H18" s="158"/>
     </row>
-    <row r="19" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="158" t="s">
-        <v>486</v>
+        <v>221</v>
       </c>
       <c r="D19" s="158"/>
       <c r="E19" s="158"/>
@@ -7138,71 +7057,103 @@
       <c r="G19" s="158"/>
       <c r="H19" s="158"/>
     </row>
-    <row r="20" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="158"/>
+    <row r="20" spans="3:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="158" t="s">
+        <v>498</v>
+      </c>
       <c r="D20" s="158"/>
       <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
+      <c r="F20" s="158">
+        <v>1</v>
+      </c>
       <c r="G20" s="158"/>
       <c r="H20" s="158"/>
     </row>
-    <row r="21" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="158"/>
+    <row r="21" spans="3:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="158" t="s">
+        <v>468</v>
+      </c>
       <c r="D21" s="158"/>
       <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
+      <c r="F21" s="158">
+        <v>1</v>
+      </c>
       <c r="G21" s="158"/>
       <c r="H21" s="158"/>
     </row>
-    <row r="22" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="158"/>
+    <row r="22" spans="3:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="158" t="s">
+        <v>471</v>
+      </c>
       <c r="D22" s="158"/>
       <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
+      <c r="F22" s="158">
+        <v>1</v>
+      </c>
       <c r="G22" s="158"/>
       <c r="H22" s="158"/>
     </row>
-    <row r="23" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="158"/>
+    <row r="23" spans="3:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="158" t="s">
+        <v>496</v>
+      </c>
       <c r="D23" s="158"/>
       <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
+      <c r="F23" s="158">
+        <v>1</v>
+      </c>
       <c r="G23" s="158"/>
       <c r="H23" s="158"/>
     </row>
-    <row r="24" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="158"/>
+    <row r="24" spans="3:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="158" t="s">
+        <v>228</v>
+      </c>
       <c r="D24" s="158"/>
       <c r="E24" s="158"/>
-      <c r="F24" s="158"/>
+      <c r="F24" s="158">
+        <v>1</v>
+      </c>
       <c r="G24" s="158"/>
       <c r="H24" s="158"/>
     </row>
-    <row r="25" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="158"/>
+    <row r="25" spans="3:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="158" t="s">
+        <v>229</v>
+      </c>
       <c r="D25" s="158"/>
       <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
+      <c r="F25" s="158">
+        <v>1</v>
+      </c>
       <c r="G25" s="158"/>
       <c r="H25" s="158"/>
     </row>
-    <row r="26" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="158"/>
+    <row r="26" spans="3:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="158" t="s">
+        <v>205</v>
+      </c>
       <c r="D26" s="158"/>
       <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
+      <c r="F26" s="158">
+        <v>1</v>
+      </c>
       <c r="G26" s="158"/>
       <c r="H26" s="158"/>
     </row>
-    <row r="27" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="158"/>
+    <row r="27" spans="3:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="158" t="s">
+        <v>472</v>
+      </c>
       <c r="D27" s="158"/>
       <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
+      <c r="F27" s="158">
+        <v>1</v>
+      </c>
       <c r="G27" s="158"/>
       <c r="H27" s="158"/>
     </row>
-    <row r="28" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="158"/>
       <c r="D28" s="158"/>
       <c r="E28" s="158"/>
@@ -7210,7 +7161,7 @@
       <c r="G28" s="158"/>
       <c r="H28" s="158"/>
     </row>
-    <row r="29" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="158"/>
       <c r="D29" s="158"/>
       <c r="E29" s="158"/>
@@ -7218,7 +7169,7 @@
       <c r="G29" s="158"/>
       <c r="H29" s="158"/>
     </row>
-    <row r="30" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="158"/>
       <c r="D30" s="158"/>
       <c r="E30" s="158"/>
@@ -7226,7 +7177,7 @@
       <c r="G30" s="158"/>
       <c r="H30" s="158"/>
     </row>
-    <row r="31" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="158"/>
       <c r="D31" s="158"/>
       <c r="E31" s="158"/>
@@ -7234,7 +7185,7 @@
       <c r="G31" s="158"/>
       <c r="H31" s="158"/>
     </row>
-    <row r="32" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="158"/>
       <c r="D32" s="158"/>
       <c r="E32" s="158"/>
@@ -7243,146 +7194,225 @@
       <c r="H32" s="158"/>
     </row>
     <row r="33" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="158"/>
-      <c r="D33" s="158"/>
-      <c r="E33" s="158"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="158"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="165"/>
     </row>
     <row r="34" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="158"/>
-      <c r="D34" s="158"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="158"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
+      <c r="E34" s="165"/>
+      <c r="F34" s="165"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="165"/>
     </row>
     <row r="35" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="158"/>
-      <c r="D35" s="158"/>
-      <c r="E35" s="158"/>
-      <c r="F35" s="158"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="158"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
+      <c r="E35" s="165"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="165"/>
     </row>
     <row r="36" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="70"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="158"/>
-      <c r="G36" s="158"/>
-      <c r="H36" s="158"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="165"/>
+      <c r="F36" s="165"/>
+      <c r="G36" s="165"/>
+      <c r="H36" s="165"/>
     </row>
     <row r="37" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="158"/>
-      <c r="D37" s="158"/>
-      <c r="E37" s="158"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="158"/>
-      <c r="H37" s="158"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
+      <c r="E37" s="165"/>
+      <c r="F37" s="165"/>
+      <c r="G37" s="165"/>
+      <c r="H37" s="165"/>
     </row>
     <row r="38" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="158"/>
-      <c r="D38" s="158"/>
-      <c r="E38" s="158"/>
-      <c r="F38" s="158"/>
-      <c r="G38" s="158"/>
-      <c r="H38" s="158"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
+      <c r="E38" s="165"/>
+      <c r="F38" s="165"/>
+      <c r="G38" s="165"/>
+      <c r="H38" s="165"/>
     </row>
     <row r="39" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="158"/>
-      <c r="D39" s="158"/>
-      <c r="E39" s="158"/>
-      <c r="F39" s="158"/>
-      <c r="G39" s="158"/>
-      <c r="H39" s="158"/>
+      <c r="C39" s="166"/>
+      <c r="D39" s="166"/>
+      <c r="E39" s="166"/>
+      <c r="F39" s="166"/>
+      <c r="G39" s="166"/>
+      <c r="H39" s="166"/>
     </row>
     <row r="40" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="158"/>
-      <c r="D40" s="158"/>
-      <c r="E40" s="158"/>
-      <c r="F40" s="158"/>
-      <c r="G40" s="158"/>
-      <c r="H40" s="158"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
+      <c r="E40" s="165"/>
+      <c r="F40" s="165"/>
+      <c r="G40" s="165"/>
+      <c r="H40" s="165"/>
     </row>
     <row r="41" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="158"/>
-      <c r="D41" s="158"/>
-      <c r="E41" s="158"/>
-      <c r="F41" s="158"/>
-      <c r="G41" s="158"/>
-      <c r="H41" s="158"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
+      <c r="E41" s="165"/>
+      <c r="F41" s="165"/>
+      <c r="G41" s="165"/>
+      <c r="H41" s="165"/>
     </row>
     <row r="42" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="158"/>
-      <c r="D42" s="158"/>
-      <c r="E42" s="158"/>
-      <c r="F42" s="158"/>
-      <c r="G42" s="158"/>
-      <c r="H42" s="158"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
+      <c r="E42" s="165"/>
+      <c r="F42" s="165"/>
+      <c r="G42" s="165"/>
+      <c r="H42" s="165"/>
     </row>
     <row r="43" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="158"/>
-      <c r="D43" s="158"/>
-      <c r="E43" s="158"/>
-      <c r="F43" s="158"/>
-      <c r="G43" s="158"/>
-      <c r="H43" s="158"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
+      <c r="E43" s="165"/>
+      <c r="F43" s="165"/>
+      <c r="G43" s="165"/>
+      <c r="H43" s="165"/>
     </row>
     <row r="44" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="158"/>
-      <c r="D44" s="158"/>
-      <c r="E44" s="158"/>
-      <c r="F44" s="158"/>
-      <c r="G44" s="158"/>
-      <c r="H44" s="158"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
+      <c r="E44" s="165"/>
+      <c r="F44" s="165"/>
+      <c r="G44" s="165"/>
+      <c r="H44" s="165"/>
     </row>
     <row r="45" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="158"/>
-      <c r="D45" s="158"/>
-      <c r="E45" s="158"/>
-      <c r="F45" s="158"/>
-      <c r="G45" s="158"/>
-      <c r="H45" s="158"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
+      <c r="E45" s="165"/>
+      <c r="F45" s="165"/>
+      <c r="G45" s="165"/>
+      <c r="H45" s="165"/>
     </row>
     <row r="46" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="158"/>
-      <c r="D46" s="158"/>
-      <c r="E46" s="158"/>
-      <c r="F46" s="158"/>
-      <c r="G46" s="158"/>
-      <c r="H46" s="158"/>
-    </row>
-    <row r="47" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" s="62"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="62"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
+      <c r="E46" s="165"/>
+      <c r="F46" s="165"/>
+      <c r="G46" s="165"/>
+      <c r="H46" s="165"/>
+    </row>
+    <row r="47" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="165"/>
+      <c r="D47" s="165"/>
+      <c r="E47" s="165"/>
+      <c r="F47" s="165"/>
+      <c r="G47" s="165"/>
+      <c r="H47" s="165"/>
+    </row>
+    <row r="48" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="165"/>
+      <c r="D48" s="165"/>
+      <c r="E48" s="165"/>
+      <c r="F48" s="165"/>
+      <c r="G48" s="165"/>
+      <c r="H48" s="165"/>
+    </row>
+    <row r="49" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="165"/>
+      <c r="D49" s="165"/>
+      <c r="E49" s="165"/>
+      <c r="F49" s="165"/>
+      <c r="G49" s="165"/>
+      <c r="H49" s="165"/>
+    </row>
+    <row r="50" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
+      <c r="E50" s="165"/>
+      <c r="F50" s="165"/>
+      <c r="G50" s="165"/>
+      <c r="H50" s="165"/>
+    </row>
+    <row r="51" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="165"/>
+      <c r="D51" s="165"/>
+      <c r="E51" s="165"/>
+      <c r="F51" s="165"/>
+      <c r="G51" s="165"/>
+      <c r="H51" s="165"/>
+    </row>
+    <row r="52" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="158"/>
+      <c r="D52" s="158"/>
+      <c r="E52" s="158"/>
+      <c r="F52" s="158"/>
+      <c r="G52" s="158"/>
+      <c r="H52" s="158"/>
+    </row>
+    <row r="53" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="158"/>
+      <c r="D53" s="158"/>
+      <c r="E53" s="158"/>
+      <c r="F53" s="158"/>
+      <c r="G53" s="158"/>
+      <c r="H53" s="158"/>
+    </row>
+    <row r="54" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="158"/>
+      <c r="D54" s="158"/>
+      <c r="E54" s="158"/>
+      <c r="F54" s="158"/>
+      <c r="G54" s="158"/>
+      <c r="H54" s="158"/>
+    </row>
+    <row r="55" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="158"/>
+      <c r="D55" s="158"/>
+      <c r="E55" s="158"/>
+      <c r="F55" s="158"/>
+      <c r="G55" s="158"/>
+      <c r="H55" s="158"/>
+    </row>
+    <row r="56" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="70"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="70"/>
+    </row>
+    <row r="57" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="158"/>
+      <c r="D57" s="158"/>
+      <c r="E57" s="158"/>
+      <c r="F57" s="158"/>
+      <c r="G57" s="158"/>
+      <c r="H57" s="158"/>
+    </row>
+    <row r="58" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="158"/>
+      <c r="D58" s="158"/>
+      <c r="E58" s="158"/>
+      <c r="F58" s="158"/>
+      <c r="G58" s="158"/>
+      <c r="H58" s="158"/>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C59" s="62"/>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C60" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="88">
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
+  <mergeCells count="109">
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="F58:H58"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="C10:E10"/>
@@ -7391,76 +7421,106 @@
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F17:H17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="67" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="53" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7515,16 +7575,16 @@
       <c r="I3" s="64"/>
     </row>
     <row r="4" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="159" t="s">
+      <c r="C4" s="163" t="s">
         <v>207</v>
       </c>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159">
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163">
         <v>7</v>
       </c>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
       <c r="I4" s="64"/>
     </row>
     <row r="5" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7541,16 +7601,16 @@
       <c r="I5" s="64"/>
     </row>
     <row r="6" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="163" t="s">
+      <c r="C6" s="159" t="s">
         <v>192</v>
       </c>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163">
+      <c r="D6" s="159"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159">
         <v>5</v>
       </c>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
+      <c r="G6" s="159"/>
+      <c r="H6" s="159"/>
       <c r="I6" s="64"/>
     </row>
     <row r="7" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7567,16 +7627,16 @@
       <c r="I7" s="64"/>
     </row>
     <row r="8" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="159" t="s">
+      <c r="C8" s="163" t="s">
         <v>219</v>
       </c>
-      <c r="D8" s="159"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="159">
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163">
         <v>5</v>
       </c>
-      <c r="G8" s="159"/>
-      <c r="H8" s="159"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
       <c r="I8" s="64"/>
     </row>
     <row r="9" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7606,16 +7666,16 @@
       <c r="I10" s="64"/>
     </row>
     <row r="11" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="163" t="s">
+      <c r="C11" s="159" t="s">
         <v>240</v>
       </c>
-      <c r="D11" s="163"/>
-      <c r="E11" s="163"/>
-      <c r="F11" s="163">
+      <c r="D11" s="159"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="159">
         <v>3</v>
       </c>
-      <c r="G11" s="163"/>
-      <c r="H11" s="163"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
       <c r="I11" s="64"/>
     </row>
     <row r="12" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7704,16 +7764,16 @@
       <c r="H18" s="158"/>
     </row>
     <row r="19" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="159" t="s">
+      <c r="C19" s="163" t="s">
         <v>239</v>
       </c>
-      <c r="D19" s="159"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="159">
+      <c r="D19" s="163"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="163">
         <v>3</v>
       </c>
-      <c r="G19" s="159"/>
-      <c r="H19" s="159"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="163"/>
     </row>
     <row r="20" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="158" t="s">
@@ -7788,16 +7848,16 @@
       <c r="H25" s="158"/>
     </row>
     <row r="26" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="159" t="s">
+      <c r="C26" s="163" t="s">
         <v>222</v>
       </c>
-      <c r="D26" s="159"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159">
+      <c r="D26" s="163"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163">
         <v>2</v>
       </c>
-      <c r="G26" s="159"/>
-      <c r="H26" s="159"/>
+      <c r="G26" s="163"/>
+      <c r="H26" s="163"/>
     </row>
     <row r="27" spans="3:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="158" t="s">
@@ -8055,6 +8115,78 @@
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C19:E19"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C29:E29"/>
@@ -8071,78 +8203,6 @@
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="F19:H19"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F24:H24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="67" orientation="portrait" r:id="rId1"/>
@@ -8854,7 +8914,7 @@
         <v>16</v>
       </c>
       <c r="I6" s="67" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>11</v>
@@ -8884,7 +8944,7 @@
         <v>50</v>
       </c>
       <c r="I7" s="66" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="J7" s="19" t="s">
         <v>9</v>
@@ -8914,7 +8974,7 @@
         <v>45</v>
       </c>
       <c r="I8" s="66" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="J8" s="19" t="s">
         <v>12</v>
@@ -8944,7 +9004,7 @@
         <v>51</v>
       </c>
       <c r="I9" s="66" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="J9" s="19" t="s">
         <v>7</v>
@@ -8974,7 +9034,7 @@
         <v>48</v>
       </c>
       <c r="I10" s="66" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="J10" s="19" t="s">
         <v>6</v>
@@ -9004,7 +9064,7 @@
         <v>25</v>
       </c>
       <c r="I11" s="66" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="J11" s="19" t="s">
         <v>52</v>
@@ -9034,7 +9094,7 @@
         <v>23</v>
       </c>
       <c r="I12" s="66" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="J12" s="19" t="s">
         <v>10</v>
@@ -9064,7 +9124,7 @@
         <v>24</v>
       </c>
       <c r="I13" s="67" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>8</v>
@@ -9148,7 +9208,7 @@
         <v>274</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="L16" s="16"/>
     </row>
@@ -9182,7 +9242,7 @@
         <v>275</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="L17" s="16"/>
     </row>
@@ -9216,7 +9276,7 @@
         <v>276</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="L18" s="16"/>
     </row>
@@ -9250,7 +9310,7 @@
         <v>277</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="L19" s="16"/>
     </row>
@@ -9318,7 +9378,7 @@
         <v>279</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="L21" s="16"/>
     </row>
@@ -9352,7 +9412,7 @@
         <v>280</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="L22" s="16"/>
     </row>
@@ -9386,7 +9446,7 @@
         <v>281</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="L23" s="16"/>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JackMacbook/Desktop/Dad/softball/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FACF06-B188-A84A-8E1A-F712B10E07F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416068E6-876A-F646-AD20-3561833EE041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="22480" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="2025 Schedule" sheetId="18" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2025 Schedule'!$P$35:$V$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2025 Schedule'!$P$35:$V$45</definedName>
     <definedName name="CIQWBGuid" hidden="1">"50be515a-d852-4fa0-a759-690b27d38276"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.49.2423.4439"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
@@ -1523,7 +1523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -1665,6 +1665,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="18" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="18" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1968,8 +1976,8 @@
   </sheetPr>
   <dimension ref="A1:AD85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A7" zoomScale="50" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="B17" zoomScale="50" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="37" x14ac:dyDescent="0.45"/>
@@ -3095,129 +3103,138 @@
       <c r="X41" s="43"/>
     </row>
     <row r="42" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B42" s="8"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="40"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="62"/>
+      <c r="N42" s="62"/>
       <c r="P42" s="35" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q42" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="R42" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="S42" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="T42" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="U42" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="V42" s="22">
-        <v>8</v>
+        <v>125</v>
+      </c>
+      <c r="R42" s="37">
+        <v>800</v>
+      </c>
+      <c r="S42" s="38">
+        <v>50</v>
+      </c>
+      <c r="T42" s="38">
+        <v>24</v>
+      </c>
+      <c r="U42" s="39">
+        <v>26</v>
+      </c>
+      <c r="V42" s="36" t="s">
+        <v>126</v>
       </c>
       <c r="X42" s="43"/>
     </row>
     <row r="43" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="40"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="62"/>
+      <c r="M43" s="62"/>
+      <c r="N43" s="62"/>
       <c r="P43" s="35" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q43" s="36" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="R43" s="37">
-        <v>666</v>
+        <v>750</v>
       </c>
       <c r="S43" s="38">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="T43" s="38">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="U43" s="39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V43" s="36" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="X43" s="43"/>
     </row>
     <row r="44" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B44" s="8"/>
-      <c r="H44" s="30"/>
       <c r="I44" s="6"/>
-      <c r="N44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="40"/>
       <c r="P44" s="35" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q44" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="R44" s="37">
-        <v>800</v>
-      </c>
-      <c r="S44" s="38">
-        <v>50</v>
-      </c>
-      <c r="T44" s="38">
-        <v>24</v>
-      </c>
-      <c r="U44" s="39">
-        <v>26</v>
-      </c>
-      <c r="V44" s="36" t="s">
-        <v>126</v>
+        <v>113</v>
+      </c>
+      <c r="R44" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="S44" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="T44" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="U44" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="V44" s="22">
+        <v>8</v>
       </c>
       <c r="X44" s="43"/>
     </row>
     <row r="45" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B45" s="15"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="H45" s="30"/>
       <c r="I45" s="15"/>
       <c r="J45" s="13"/>
       <c r="K45" s="40"/>
       <c r="L45" s="40"/>
       <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
       <c r="P45" s="35" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Q45" s="36" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="R45" s="37">
-        <v>750</v>
+        <v>666</v>
       </c>
       <c r="S45" s="38">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="T45" s="38">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="U45" s="39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V45" s="36" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="X45" s="43"/>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JackMacbook/Desktop/Dad/softball/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416068E6-876A-F646-AD20-3561833EE041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B786822D-7E84-C141-8C26-A5025EEE01B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="22480" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
